--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_connection_point_id_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_connection_point_id_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:93c8b6e3-77b3-4992-bf47-d6c4dbe13b72"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:a5877d10-8e1f-47b3-8994-655d483e0add"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
